--- a/API - Table.xlsx
+++ b/API - Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Russomano\flask-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2300F612-F67F-4E76-8B11-5C5F0F461D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EEB07-BA01-4339-B4D5-75C83C40359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="240" windowWidth="14250" windowHeight="15105" xr2:uid="{B6BD72D5-AE0F-4C6C-826B-E60A0BA7547A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6BD72D5-AE0F-4C6C-826B-E60A0BA7547A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Table</t>
   </si>
@@ -128,58 +128,52 @@
     <t>Better Exceptions</t>
   </si>
   <si>
-    <t>/middleoffice/scheduler</t>
-  </si>
-  <si>
     <t> returns basic information about the webapp</t>
   </si>
   <si>
-    <t>/middleoffice/scheduler/jobs</t>
-  </si>
-  <si>
     <t>returns json with details of all jobs</t>
   </si>
   <si>
-    <t>/middleoffice/scheduler/jobs/&lt;job_id&gt;</t>
-  </si>
-  <si>
     <t>return json of job details</t>
   </si>
   <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>deletes job from scheduler</t>
-  </si>
-  <si>
-    <t>updates na already existing job</t>
-  </si>
-  <si>
-    <t>[PATCH json job data]</t>
-  </si>
-  <si>
-    <t>/middleoffice/scheduler/jobs/&lt;job_id&gt;/pause</t>
-  </si>
-  <si>
     <t>pauses a job, return json of job details</t>
   </si>
   <si>
     <t>resumes a job, return json of job details</t>
   </si>
   <si>
-    <t>/middleoffice/scheduler/jobs/&lt;job_id&gt;/run</t>
-  </si>
-  <si>
     <t>runs a job now, return json of job details</t>
   </si>
   <si>
-    <t>/currencies</t>
-  </si>
-  <si>
     <t>/currencies/values/</t>
   </si>
   <si>
     <t>/sectors/assets/</t>
+  </si>
+  <si>
+    <t>/middleoffice/schedule</t>
+  </si>
+  <si>
+    <t>/middleoffice/jobs/</t>
+  </si>
+  <si>
+    <t>/middleoffice/jobs/pause</t>
+  </si>
+  <si>
+    <t>/middleoffice/jobs/resume</t>
+  </si>
+  <si>
+    <t>/middleoffice/jobs/run</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/currencies/</t>
+  </si>
+  <si>
+    <t>apscheduler_jobs</t>
   </si>
 </sst>
 </file>
@@ -303,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,6 +325,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF043-77ED-422F-9E55-1F51C4EA9E01}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -772,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
@@ -794,16 +795,12 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -818,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>5</v>
@@ -840,16 +837,12 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -860,18 +853,12 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -882,12 +869,22 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -898,22 +895,16 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -924,14 +915,22 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -941,22 +940,12 @@
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>22</v>
+    <row r="13" spans="1:17" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
@@ -967,11 +956,11 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
+    <row r="14" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="5"/>
@@ -983,11 +972,11 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="5"/>
@@ -1000,16 +989,20 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1019,14 +1012,17 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="5"/>
@@ -1038,15 +1034,12 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.75">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
@@ -1057,15 +1050,18 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -1076,76 +1072,49 @@
       <c r="N19" s="6"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.75">
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.75">
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.75">
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.75">
-      <c r="B24" s="6" t="s">
+      <c r="D21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="C23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/API - Table.xlsx
+++ b/API - Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Russomano\flask-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EEB07-BA01-4339-B4D5-75C83C40359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35CF5FB-E824-46FE-B297-14926436E78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6BD72D5-AE0F-4C6C-826B-E60A0BA7547A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10980" xr2:uid="{B6BD72D5-AE0F-4C6C-826B-E60A0BA7547A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Table</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Better Exceptions</t>
   </si>
   <si>
-    <t> returns basic information about the webapp</t>
-  </si>
-  <si>
     <t>returns json with details of all jobs</t>
   </si>
   <si>
@@ -174,6 +171,42 @@
   </si>
   <si>
     <t>apscheduler_jobs</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>HolidaysCalendar</t>
+  </si>
+  <si>
+    <t>/middleoffice/holiday-calendars/</t>
+  </si>
+  <si>
+    <t>/middleoffice/holidays/</t>
+  </si>
+  <si>
+    <t>Improve POST sqlalchemy exception</t>
+  </si>
+  <si>
+    <t>returns basic information about the webapp</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>OPEN API</t>
+  </si>
+  <si>
+    <t>Change routes</t>
+  </si>
+  <si>
+    <t>RAISE FOR API SCHEMAS</t>
+  </si>
+  <si>
+    <t>EXCLUDE FOR WEBSCRAPPER AND EXTERNAL APIS</t>
+  </si>
+  <si>
+    <t>THINK ABOUT EXCEL (STREAMING CONTENTS)</t>
   </si>
 </sst>
 </file>
@@ -297,19 +330,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -318,19 +350,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,24 +691,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BF043-77ED-422F-9E55-1F51C4EA9E01}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="12.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,438 +727,402 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="O2" s="6"/>
       <c r="Q2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="6"/>
       <c r="Q3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A5" s="10" t="s">
+      <c r="O4" s="6"/>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="H11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="B17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="B19" s="6" t="s">
+      <c r="H19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="D20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="B20" s="6" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="D21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
